--- a/Walls.xlsx
+++ b/Walls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://drexel0-my.sharepoint.com/personal/pb669_drexel_edu/Documents/PhD/PhD_PythonCoding/crack-to-graph/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{BAD65B03-5B7D-44ED-98BC-485C68507825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9AD05B9-7F00-4ED2-B651-DE41A91AEA27}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{BAD65B03-5B7D-44ED-98BC-485C68507825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C5E92C-EDE8-4642-8EC5-15476E3108B4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="315" yWindow="1042" windowWidth="12000" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,9 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B689"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/Walls.xlsx
+++ b/Walls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://drexel0-my.sharepoint.com/personal/pb669_drexel_edu/Documents/PhD/PhD_PythonCoding/crack-to-graph/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{BAD65B03-5B7D-44ED-98BC-485C68507825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C5E92C-EDE8-4642-8EC5-15476E3108B4}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{BAD65B03-5B7D-44ED-98BC-485C68507825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7279F6D3-679B-45FF-9846-8E5A3A47D606}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,13 +410,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>102200033</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>103088080</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>104033005</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
